--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H2">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I2">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J2">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.098765</v>
+        <v>0.1798956666666667</v>
       </c>
       <c r="N2">
-        <v>3.296295</v>
+        <v>0.539687</v>
       </c>
       <c r="O2">
-        <v>0.04219121913039277</v>
+        <v>0.01070918551864568</v>
       </c>
       <c r="P2">
-        <v>0.04777771124863078</v>
+        <v>0.01088280728907136</v>
       </c>
       <c r="Q2">
-        <v>6.784242817635</v>
+        <v>0.3021371707755555</v>
       </c>
       <c r="R2">
-        <v>61.05818535871499</v>
+        <v>2.71923453698</v>
       </c>
       <c r="S2">
-        <v>0.02023507567119573</v>
+        <v>0.004033411741370631</v>
       </c>
       <c r="T2">
-        <v>0.02591402386165093</v>
+        <v>0.004274824465973213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H3">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I3">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J3">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>15.79937666666667</v>
       </c>
       <c r="N3">
-        <v>47.39812999999999</v>
+        <v>47.39813</v>
       </c>
       <c r="O3">
-        <v>0.6066765532820465</v>
+        <v>0.9405365839956962</v>
       </c>
       <c r="P3">
-        <v>0.6870059169052114</v>
+        <v>0.9557849543390003</v>
       </c>
       <c r="Q3">
-        <v>97.5520768080011</v>
+        <v>26.53526377002222</v>
       </c>
       <c r="R3">
-        <v>877.9686912720099</v>
+        <v>238.8173739302</v>
       </c>
       <c r="S3">
-        <v>0.2909644759413743</v>
+        <v>0.3542352772273772</v>
       </c>
       <c r="T3">
-        <v>0.3726232851785513</v>
+        <v>0.3754374030973118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H4">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I4">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J4">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.009167</v>
+        <v>0.01499966666666667</v>
       </c>
       <c r="N4">
-        <v>0.027501</v>
+        <v>0.044999</v>
       </c>
       <c r="O4">
-        <v>0.0003520014796324151</v>
+        <v>0.0008929298633347419</v>
       </c>
       <c r="P4">
-        <v>0.0003986096017039115</v>
+        <v>0.0009074064137192897</v>
       </c>
       <c r="Q4">
-        <v>0.05660096008633334</v>
+        <v>0.02519214016222222</v>
       </c>
       <c r="R4">
-        <v>0.509408640777</v>
+        <v>0.22672926146</v>
       </c>
       <c r="S4">
-        <v>0.0001688213027151859</v>
+        <v>0.0003363051082385476</v>
       </c>
       <c r="T4">
-        <v>0.0002162007861005348</v>
+        <v>0.0003564340555624438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H5">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I5">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J5">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.135195499999998</v>
+        <v>0.8039865</v>
       </c>
       <c r="N5">
-        <v>18.270391</v>
+        <v>1.607973</v>
       </c>
       <c r="O5">
-        <v>0.3507802261079284</v>
+        <v>0.04786130062232345</v>
       </c>
       <c r="P5">
-        <v>0.264817762244454</v>
+        <v>0.03242483195820901</v>
       </c>
       <c r="Q5">
-        <v>56.40458556521783</v>
+        <v>1.35030604657</v>
       </c>
       <c r="R5">
-        <v>338.4275133913069</v>
+        <v>8.101836279419999</v>
       </c>
       <c r="S5">
-        <v>0.1682355846916007</v>
+        <v>0.01802605170591554</v>
       </c>
       <c r="T5">
-        <v>0.1436337913735549</v>
+        <v>0.01273664609491121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.686821</v>
       </c>
       <c r="I6">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J6">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.098765</v>
+        <v>0.1798956666666667</v>
       </c>
       <c r="N6">
-        <v>3.296295</v>
+        <v>0.539687</v>
       </c>
       <c r="O6">
-        <v>0.04219121913039277</v>
+        <v>0.01070918551864568</v>
       </c>
       <c r="P6">
-        <v>0.04777771124863078</v>
+        <v>0.01088280728907136</v>
       </c>
       <c r="Q6">
-        <v>2.449081625355</v>
+        <v>0.4009767072252223</v>
       </c>
       <c r="R6">
-        <v>22.041734628195</v>
+        <v>3.608790365027</v>
       </c>
       <c r="S6">
-        <v>0.007304772742681581</v>
+        <v>0.005352880464151066</v>
       </c>
       <c r="T6">
-        <v>0.009354847900432981</v>
+        <v>0.005673267654992016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.686821</v>
       </c>
       <c r="I7">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J7">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>15.79937666666667</v>
       </c>
       <c r="N7">
-        <v>47.39812999999999</v>
+        <v>47.39813</v>
       </c>
       <c r="O7">
-        <v>0.6066765532820465</v>
+        <v>0.9405365839956962</v>
       </c>
       <c r="P7">
-        <v>0.6870059169052114</v>
+        <v>0.9557849543390003</v>
       </c>
       <c r="Q7">
         <v>35.21586789385889</v>
@@ -883,10 +883,10 @@
         <v>316.94281104473</v>
       </c>
       <c r="S7">
-        <v>0.105036887802238</v>
+        <v>0.4701179092961152</v>
       </c>
       <c r="T7">
-        <v>0.1345153564577653</v>
+        <v>0.4982559851100855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>6.686821</v>
       </c>
       <c r="I8">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J8">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.009167</v>
+        <v>0.01499966666666667</v>
       </c>
       <c r="N8">
-        <v>0.027501</v>
+        <v>0.044999</v>
       </c>
       <c r="O8">
-        <v>0.0003520014796324151</v>
+        <v>0.0008929298633347419</v>
       </c>
       <c r="P8">
-        <v>0.0003986096017039115</v>
+        <v>0.0009074064137192897</v>
       </c>
       <c r="Q8">
-        <v>0.02043269603566667</v>
+        <v>0.03343336201988889</v>
       </c>
       <c r="R8">
-        <v>0.183894264321</v>
+        <v>0.300900258179</v>
       </c>
       <c r="S8">
-        <v>6.094374295883293E-05</v>
+        <v>0.0004463221608197599</v>
       </c>
       <c r="T8">
-        <v>7.804752672615996E-05</v>
+        <v>0.0004730359842037805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.686821</v>
       </c>
       <c r="I9">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J9">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.135195499999998</v>
+        <v>0.8039865</v>
       </c>
       <c r="N9">
-        <v>18.270391</v>
+        <v>1.607973</v>
       </c>
       <c r="O9">
-        <v>0.3507802261079284</v>
+        <v>0.04786130062232345</v>
       </c>
       <c r="P9">
-        <v>0.264817762244454</v>
+        <v>0.03242483195820901</v>
       </c>
       <c r="Q9">
-        <v>20.36180570283516</v>
+        <v>1.7920379373055</v>
       </c>
       <c r="R9">
-        <v>122.170834217011</v>
+        <v>10.752227623833</v>
       </c>
       <c r="S9">
-        <v>0.06073230134511696</v>
+        <v>0.02392299775216667</v>
       </c>
       <c r="T9">
-        <v>0.05185116286207381</v>
+        <v>0.01690324430827586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.470643</v>
+        <v>0.550853</v>
       </c>
       <c r="H10">
-        <v>8.941286</v>
+        <v>1.101706</v>
       </c>
       <c r="I10">
-        <v>0.3472611367601188</v>
+        <v>0.1235288445438454</v>
       </c>
       <c r="J10">
-        <v>0.2618132840531441</v>
+        <v>0.08588915922868416</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.098765</v>
+        <v>0.1798956666666667</v>
       </c>
       <c r="N10">
-        <v>3.296295</v>
+        <v>0.539687</v>
       </c>
       <c r="O10">
-        <v>0.04219121913039277</v>
+        <v>0.01070918551864568</v>
       </c>
       <c r="P10">
-        <v>0.04777771124863078</v>
+        <v>0.01088280728907136</v>
       </c>
       <c r="Q10">
-        <v>4.912186055895</v>
+        <v>0.09909606767033334</v>
       </c>
       <c r="R10">
-        <v>29.47311633537</v>
+        <v>0.5945764060220001</v>
       </c>
       <c r="S10">
-        <v>0.01465137071651546</v>
+        <v>0.001322893313123982</v>
       </c>
       <c r="T10">
-        <v>0.01250883948654687</v>
+        <v>0.0009347151681061349</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.470643</v>
+        <v>0.550853</v>
       </c>
       <c r="H11">
-        <v>8.941286</v>
+        <v>1.101706</v>
       </c>
       <c r="I11">
-        <v>0.3472611367601188</v>
+        <v>0.1235288445438454</v>
       </c>
       <c r="J11">
-        <v>0.2618132840531441</v>
+        <v>0.08588915922868416</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>15.79937666666667</v>
       </c>
       <c r="N11">
-        <v>47.39812999999999</v>
+        <v>47.39813</v>
       </c>
       <c r="O11">
-        <v>0.6066765532820465</v>
+        <v>0.9405365839956962</v>
       </c>
       <c r="P11">
-        <v>0.6870059169052114</v>
+        <v>0.9557849543390003</v>
       </c>
       <c r="Q11">
-        <v>70.63337269919666</v>
+        <v>8.703134034963334</v>
       </c>
       <c r="R11">
-        <v>423.8002361951799</v>
+        <v>52.21880420978</v>
       </c>
       <c r="S11">
-        <v>0.2106751895384342</v>
+        <v>0.1161833974722037</v>
       </c>
       <c r="T11">
-        <v>0.1798672752688948</v>
+        <v>0.08209156613160302</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.470643</v>
+        <v>0.550853</v>
       </c>
       <c r="H12">
-        <v>8.941286</v>
+        <v>1.101706</v>
       </c>
       <c r="I12">
-        <v>0.3472611367601188</v>
+        <v>0.1235288445438454</v>
       </c>
       <c r="J12">
-        <v>0.2618132840531441</v>
+        <v>0.08588915922868416</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.009167</v>
+        <v>0.01499966666666667</v>
       </c>
       <c r="N12">
-        <v>0.027501</v>
+        <v>0.044999</v>
       </c>
       <c r="O12">
-        <v>0.0003520014796324151</v>
+        <v>0.0008929298633347419</v>
       </c>
       <c r="P12">
-        <v>0.0003986096017039115</v>
+        <v>0.0009074064137192897</v>
       </c>
       <c r="Q12">
-        <v>0.040982384381</v>
+        <v>0.008262611382333333</v>
       </c>
       <c r="R12">
-        <v>0.245894306286</v>
+        <v>0.049575668294</v>
       </c>
       <c r="S12">
-        <v>0.0001222364339583962</v>
+        <v>0.0001103025942764344</v>
       </c>
       <c r="T12">
-        <v>0.0001043612888772168</v>
+        <v>7.793637395306533E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.470643</v>
+        <v>0.550853</v>
       </c>
       <c r="H13">
-        <v>8.941286</v>
+        <v>1.101706</v>
       </c>
       <c r="I13">
-        <v>0.3472611367601188</v>
+        <v>0.1235288445438454</v>
       </c>
       <c r="J13">
-        <v>0.2618132840531441</v>
+        <v>0.08588915922868416</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.135195499999998</v>
+        <v>0.8039865</v>
       </c>
       <c r="N13">
-        <v>18.270391</v>
+        <v>1.607973</v>
       </c>
       <c r="O13">
-        <v>0.3507802261079284</v>
+        <v>0.04786130062232345</v>
       </c>
       <c r="P13">
-        <v>0.264817762244454</v>
+        <v>0.03242483195820901</v>
       </c>
       <c r="Q13">
-        <v>40.84019781570649</v>
+        <v>0.4428783754845</v>
       </c>
       <c r="R13">
-        <v>163.360791262826</v>
+        <v>1.771513501938</v>
       </c>
       <c r="S13">
-        <v>0.1218123400712107</v>
+        <v>0.005912251164241244</v>
       </c>
       <c r="T13">
-        <v>0.0693328080088252</v>
+        <v>0.002784941555021941</v>
       </c>
     </row>
   </sheetData>
